--- a/dados/koalaparts.xlsx
+++ b/dados/koalaparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
@@ -496,242 +516,338 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.33</v>
+        <v>736.61</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>736.61</v>
+        <v>443.07</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443.07</v>
+        <v>805.59</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>805.59</v>
+        <v>493.42</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>402.79</v>
+        <v>624.33</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:128715346#searchVariation=MLB21621306&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>493.42</v>
+        <v>45.9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=97318620-5dc1-4507-8ea7-81167e7f21c0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.9</v>
+        <v>443.07</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=9d039092-d3ae-4bd0-aa4d-e42c964f7c10</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.07</v>
+        <v>390.43</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=9d039092-d3ae-4bd0-aa4d-e42c964f7c10</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>390.43</v>
+        <v>402.79</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=9d039092-d3ae-4bd0-aa4d-e42c964f7c10</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:128715346#searchVariation=MLB21621306&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
         </is>
       </c>
     </row>
@@ -746,17 +862,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=088ddbe0-9ba7-4fcd-9f0b-9eaf1a2e4441</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
         </is>
       </c>
     </row>
@@ -771,17 +897,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=088ddbe0-9ba7-4fcd-9f0b-9eaf1a2e4441</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
         </is>
       </c>
     </row>
@@ -796,17 +928,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=088ddbe0-9ba7-4fcd-9f0b-9eaf1a2e4441</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
         </is>
       </c>
     </row>
@@ -821,17 +959,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=088ddbe0-9ba7-4fcd-9f0b-9eaf1a2e4441</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
         </is>
       </c>
     </row>
@@ -846,17 +994,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=088ddbe0-9ba7-4fcd-9f0b-9eaf1a2e4441</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
         </is>
       </c>
     </row>
@@ -871,17 +1025,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc78567e-b13c-46cb-b45b-3c7900119b2d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
         </is>
       </c>
     </row>
@@ -896,17 +1056,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc78567e-b13c-46cb-b45b-3c7900119b2d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
         </is>
       </c>
     </row>
@@ -921,17 +1091,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc78567e-b13c-46cb-b45b-3c7900119b2d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
         </is>
       </c>
     </row>
@@ -946,17 +1122,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=fc78567e-b13c-46cb-b45b-3c7900119b2d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
         </is>
       </c>
     </row>
@@ -971,17 +1153,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3f0a2b3e-b5e6-4cd4-be83-1c0b56a2a0c8</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3ce234e-c15e-4571-8275-2ce79f8dbd1e</t>
         </is>
       </c>
     </row>
@@ -996,17 +1188,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2270c4ce-8801-4139-9922-572e4f4a41e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3ce234e-c15e-4571-8275-2ce79f8dbd1e</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1223,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2270c4ce-8801-4139-9922-572e4f4a41e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D49a05c99-a3e4-45ce-a877-9f4d3763119a</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1254,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc982b20-f079-446c-9bba-d538221c7242</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D494dd14c-6647-47c9-a15b-3ef82eb8c953</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1289,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4184ded3-5023-4fa9-b314-685bd3d4305d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1026fe59-1939-422d-afc8-b4f86408ca7d</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1320,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D862915b4-9ee7-4bb9-b06e-eb0b2ea56af3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D49b9022b-14a3-4b3c-97cf-fc655caf4472</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1355,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4369faa9-e769-482e-aa14-f7620468caed</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D01efa586-f6cd-431f-95be-732504f8ad98</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1386,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De02ecacd-d9c3-4cbb-8413-32b97ec75f27</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D19149160-1176-41ad-bf47-a075d50789b3</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1417,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D314bab20-b7ec-4acd-8151-5848ba472ddc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D531638f1-947b-441c-b422-b62710c148b3</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1448,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9789e2d8-c55d-47f7-9c8d-b6bf5b3e1815</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b9384a3-3243-4dec-a31e-e42b3089b5ac</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1483,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9789e2d8-c55d-47f7-9c8d-b6bf5b3e1815</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b9384a3-3243-4dec-a31e-e42b3089b5ac</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1518,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8a9397d4-0cd2-45c2-b116-310a0d263ff9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D987b5ed4-ec82-4b83-b39a-52b61a473acd</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1553,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54d2e606-3ae0-4aa3-9788-2781be05af8f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8acfeb77-1ea7-4a24-a7df-6baff247de74</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1588,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De70350bc-7e78-49ea-92f8-dd0a1c7a9905</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De45f6b00-c3a7-4798-9e7b-4d4567122207</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1623,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De70350bc-7e78-49ea-92f8-dd0a1c7a9905</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De45f6b00-c3a7-4798-9e7b-4d4567122207</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1658,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De70350bc-7e78-49ea-92f8-dd0a1c7a9905</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De45f6b00-c3a7-4798-9e7b-4d4567122207</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1693,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc77445ac-5f93-40a7-9322-84930ade67ce</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4cf039e-8042-4952-892e-a65269837278</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1724,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbf36ecc9-cb4c-4154-8b57-eec437c43f04</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9671b8c-a7ae-468d-9525-ed851ade9055</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1755,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da17c4d71-521b-4bc5-a019-595395ba0bec</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5a146026-bd5d-4fc0-aeab-c1d99107bf8d</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1790,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da17c4d71-521b-4bc5-a019-595395ba0bec</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5a146026-bd5d-4fc0-aeab-c1d99107bf8d</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1825,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6faae780-0774-478c-b4a4-c69d3dcca16a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44705ccd-c4ed-429b-93cd-01877f883f8f</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1856,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43853579-5986-4cd2-8239-902f1277168b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da623ec9d-e837-4781-a758-fd2a57d064e3</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1887,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43853579-5986-4cd2-8239-902f1277168b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da623ec9d-e837-4781-a758-fd2a57d064e3</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1922,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5a789700-c53e-4b83-afd2-a052eb3ab75a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da623ec9d-e837-4781-a758-fd2a57d064e3</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1953,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da3dc2aaf-7bad-4612-9ba9-5fac1827f4be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcf397459-de4c-4db9-8240-d093a867d3c0</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1984,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da3dc2aaf-7bad-4612-9ba9-5fac1827f4be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded8cd16f-4055-4160-891d-366e7d3bc657</t>
         </is>
       </c>
     </row>
@@ -1621,17 +2015,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da3dc2aaf-7bad-4612-9ba9-5fac1827f4be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded8cd16f-4055-4160-891d-366e7d3bc657</t>
         </is>
       </c>
     </row>
@@ -1646,17 +2046,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74d1fb04-95e9-4025-a211-f420832e9e06</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfeca2dff-873e-4542-8090-c2522a346755</t>
         </is>
       </c>
     </row>
@@ -1671,17 +2077,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74d1fb04-95e9-4025-a211-f420832e9e06</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfeca2dff-873e-4542-8090-c2522a346755</t>
         </is>
       </c>
     </row>
@@ -1696,17 +2108,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74d1fb04-95e9-4025-a211-f420832e9e06</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfeca2dff-873e-4542-8090-c2522a346755</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts.xlsx
+++ b/dados/koalaparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>499.46</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>634.4</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>624.33</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,29 +571,25 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -606,32 +602,28 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +633,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>326.52</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,23 +668,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>443.07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -711,28 +703,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=d0fd7621-61d8-466a-9de7-64e0d82a4d12</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -742,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
         </is>
       </c>
     </row>
@@ -752,14 +748,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>443.07</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -777,23 +773,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>493.42</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -802,74 +798,70 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>513.01</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:128715346#searchVariation=MLB21621306&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=3c6492da-8d08-4280-9834-1a45b2c2c557</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -877,30 +869,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>481.12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -908,30 +904,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>481.12</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>694.83</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -944,29 +944,25 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>694.83</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2099</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -974,28 +970,28 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2099</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1510</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -1010,25 +1006,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=1d012ef7-30fc-4769-9416-1672e3bb23d0</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b5d748f-b5e2-446d-ace5-8cf6e8aee176</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2455</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1071,28 +1071,28 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b5d748f-b5e2-446d-ace5-8cf6e8aee176</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2455</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1298</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1107,23 +1107,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b5d748f-b5e2-446d-ace5-8cf6e8aee176</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1298</v>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2088</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1138,58 +1138,58 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4954073-0ec6-48dd-99b6-143d02b8c75e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd5056fdf-55b0-411f-925b-76137e955ae8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>422.94</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>641.27</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3ce234e-c15e-4571-8275-2ce79f8dbd1e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2be0eec-850c-4977-8906-fdc9950b9974</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>539.74</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1203,28 +1203,28 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3ce234e-c15e-4571-8275-2ce79f8dbd1e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7d3a365-4275-4080-9ac3-94176c0725f1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2088</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3098</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D49a05c99-a3e4-45ce-a877-9f4d3763119a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7d3a365-4275-4080-9ac3-94176c0725f1</t>
         </is>
       </c>
     </row>
@@ -1249,53 +1249,57 @@
           <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>610.0599999999999</v>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D494dd14c-6647-47c9-a15b-3ef82eb8c953</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ebad813-0cd0-41a0-9c4d-8e3b5342db7e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3098</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>422.94</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1305,27 +1309,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1026fe59-1939-422d-afc8-b4f86408ca7d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2814d1c-ebb7-4599-b3d5-5908ade860b0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>365.72</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1335,12 +1339,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D49b9022b-14a3-4b3c-97cf-fc655caf4472</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2814d1c-ebb7-4599-b3d5-5908ade860b0</t>
         </is>
       </c>
     </row>
@@ -1350,15 +1354,19 @@
           <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>2088</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1371,7 +1379,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D01efa586-f6cd-431f-95be-732504f8ad98</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2814d1c-ebb7-4599-b3d5-5908ade860b0</t>
         </is>
       </c>
     </row>
@@ -1381,13 +1389,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>55</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1402,7 +1410,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D19149160-1176-41ad-bf47-a075d50789b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2be63a44-3a8a-4a1b-b1f4-e7314fced381</t>
         </is>
       </c>
     </row>
@@ -1412,13 +1420,13 @@
           <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>1789</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1433,7 +1441,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D531638f1-947b-441c-b422-b62710c148b3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2be63a44-3a8a-4a1b-b1f4-e7314fced381</t>
         </is>
       </c>
     </row>
@@ -1443,14 +1451,14 @@
           <t>Fonte Carregador Bateria Bivolt Jfa Storm 120a Digital Cca</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1468,7 +1476,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b9384a3-3243-4dec-a31e-e42b3089b5ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D90195136-9ab0-4b45-9b1b-87d8fd4cef78</t>
         </is>
       </c>
     </row>
@@ -1478,17 +1486,17 @@
           <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>434.7</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>388.68</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1503,7 +1511,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5b9384a3-3243-4dec-a31e-e42b3089b5ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D90195136-9ab0-4b45-9b1b-87d8fd4cef78</t>
         </is>
       </c>
     </row>
@@ -1513,19 +1521,15 @@
           <t>Fonte Carregador Automotivo Jfa 200a Storm 220v Monovolt</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>774.88</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1538,23 +1542,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D987b5ed4-ec82-4b83-b39a-52b61a473acd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8233985b-8116-45d7-b842-07e659d55226</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>805.59</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1573,27 +1577,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8acfeb77-1ea7-4a24-a7df-6baff247de74</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ce4013d-cd9e-48dd-a0a7-49bcb0d4dcac</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>365.71</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1603,32 +1607,32 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De45f6b00-c3a7-4798-9e7b-4d4567122207</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ce4013d-cd9e-48dd-a0a7-49bcb0d4dcac</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>610.0599999999999</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1643,29 +1647,25 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De45f6b00-c3a7-4798-9e7b-4d4567122207</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ce4013d-cd9e-48dd-a0a7-49bcb0d4dcac</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1678,23 +1678,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De45f6b00-c3a7-4798-9e7b-4d4567122207</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69a00312-e749-4dd7-b33b-7a78dc194789</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C38" t="n">
+        <v>69.90000000000001</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1709,25 +1709,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4cf039e-8042-4952-892e-a65269837278</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d4866e8-8bb3-4e15-b833-5bb26859e3fd</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1740,29 +1744,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9671b8c-a7ae-468d-9525-ed851ade9055</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95890098-7c16-420c-ae4f-fd2181f07178</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1775,27 +1775,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5a146026-bd5d-4fc0-aeab-c1d99107bf8d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95890098-7c16-420c-ae4f-fd2181f07178</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>536.26</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>388.68</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1805,30 +1805,34 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5a146026-bd5d-4fc0-aeab-c1d99107bf8d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95890098-7c16-420c-ae4f-fd2181f07178</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>479.81</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1841,23 +1845,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D44705ccd-c4ed-429b-93cd-01877f883f8f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc241d2d-f0e3-404c-b785-62c9d267faac</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3609</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1872,29 +1876,25 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da623ec9d-e837-4781-a758-fd2a57d064e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc241d2d-f0e3-404c-b785-62c9d267faac</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>434.7</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1902,28 +1902,28 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da623ec9d-e837-4781-a758-fd2a57d064e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8643cd1a-2e3a-4d82-b4ac-188a2ee275a3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>3609</v>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>Fonte Carregador Automotivo Jfa Storm Lite 40 Amperes Slim</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C45" t="n">
+        <v>328.5</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1933,28 +1933,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da623ec9d-e837-4781-a758-fd2a57d064e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8643cd1a-2e3a-4d82-b4ac-188a2ee275a3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1284</v>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3098</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1969,23 +1969,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcf397459-de4c-4db9-8240-d093a867d3c0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7aa8d02d-feb1-483f-b48e-5444c25d5b4d</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite 40 Amperes Slim</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="C47" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2069</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1995,28 +1995,28 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded8cd16f-4055-4160-891d-366e7d3bc657</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48cbbd3a-f891-4b54-90e5-161dcac8612d</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>3098</v>
-      </c>
-      <c r="C48" t="inlineStr">
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2069</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -2031,25 +2031,29 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded8cd16f-4055-4160-891d-366e7d3bc657</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a170afc-e28d-4bfb-bbe1-97d5c8c12a8b</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2069</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 70a Digital Cca</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2057,30 +2061,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfeca2dff-873e-4542-8090-c2522a346755</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a170afc-e28d-4bfb-bbe1-97d5c8c12a8b</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2069</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>716.71</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2088,47 +2096,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfeca2dff-873e-4542-8090-c2522a346755</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 70a Digital Cca</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfeca2dff-873e-4542-8090-c2522a346755</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a170afc-e28d-4bfb-bbe1-97d5c8c12a8b</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts.xlsx
+++ b/dados/koalaparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>499.46</v>
+        <v>805.59</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>634.4</v>
+        <v>364.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>624.33</v>
+        <v>499.46</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
@@ -583,13 +583,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>736.61</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -602,28 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>326.52</v>
+        <v>443.07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -668,27 +676,27 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=e7a99fb3-505e-4b04-8c2f-627f79b2c14d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>443.07</v>
+        <v>693.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -703,29 +711,25 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>316.8</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -738,67 +742,63 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>443.07</v>
+        <v>548.25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>45.9</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,27 +808,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a1af69e-073c-4731-9db1-9e4096d599be</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>513.01</v>
+        <v>443.07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -843,25 +843,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=7120a115-7b6a-4062-95e1-12c3d572cd51</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a1af69e-073c-4731-9db1-9e4096d599be</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>573.36</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -869,12 +873,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
         </is>
       </c>
     </row>
@@ -890,7 +894,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>481.12</v>
+        <v>433.01</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -909,7 +913,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
         </is>
       </c>
     </row>
@@ -944,7 +948,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
         </is>
       </c>
     </row>
@@ -956,13 +960,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>2099</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -975,7 +983,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
         </is>
       </c>
     </row>
@@ -1006,14 +1014,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=f4ed41c6-3369-4280-909f-ecd84b206d7f</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1022,11 +1030,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>845.87</v>
+        <v>2455</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1036,19 +1044,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b5d748f-b5e2-446d-ace5-8cf6e8aee176</t>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=6850dded-7158-430c-9adc-35fe08a24c2c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1057,11 +1065,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2455</v>
+        <v>845.87</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1071,12 +1079,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b5d748f-b5e2-446d-ace5-8cf6e8aee176</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=6850dded-7158-430c-9adc-35fe08a24c2c</t>
         </is>
       </c>
     </row>
@@ -1107,28 +1115,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=9b5d748f-b5e2-446d-ace5-8cf6e8aee176</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=6850dded-7158-430c-9adc-35fe08a24c2c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2088</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>408.74</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1138,7 +1150,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd5056fdf-55b0-411f-925b-76137e955ae8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc9ac100-e899-4188-b219-17cd5cb62095</t>
         </is>
       </c>
     </row>
@@ -1154,46 +1166,46 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>641.27</v>
+        <v>681.83</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df2be0eec-850c-4977-8906-fdc9950b9974</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc9ac100-e899-4188-b219-17cd5cb62095</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>539.74</v>
+        <v>2088</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1203,30 +1215,34 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7d3a365-4275-4080-9ac3-94176c0725f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62eb36de-df5c-4d89-9567-2844c806f7e9</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3098</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>539.74</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1234,37 +1250,33 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7d3a365-4275-4080-9ac3-94176c0725f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e00e0e2-61b7-4cae-a434-857a33a9d5bd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>610.0599999999999</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>3098</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1274,32 +1286,28 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ebad813-0cd0-41a0-9c4d-8e3b5342db7e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e00e0e2-61b7-4cae-a434-857a33a9d5bd</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>422.94</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1789</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1309,27 +1317,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2814d1c-ebb7-4599-b3d5-5908ade860b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc5304edc-6ff9-41d6-8e85-514c0771d4d0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>365.72</v>
+        <v>716.71</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1339,37 +1347,37 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2814d1c-ebb7-4599-b3d5-5908ade860b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc5304edc-6ff9-41d6-8e85-514c0771d4d0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2088</v>
+        <v>536.26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1379,7 +1387,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De2814d1c-ebb7-4599-b3d5-5908ade860b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75f080bf-9939-4fd4-9716-291c64c0a723</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1418,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2be63a44-3a8a-4a1b-b1f4-e7314fced381</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75f080bf-9939-4fd4-9716-291c64c0a723</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>Fonte Carregador Bateria Bivolt Jfa Storm 120a Digital Cca</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1789</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1436,28 +1448,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2be63a44-3a8a-4a1b-b1f4-e7314fced381</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dff861c7b-98bd-487e-a291-880dac6cb491</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Jfa Storm 120a Digital Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm 220v Monovolt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>674.6799999999999</v>
+        <v>774.88</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1476,29 +1488,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D90195136-9ab0-4b45-9b1b-87d8fd4cef78</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dff861c7b-98bd-487e-a291-880dac6cb491</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>388.68</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1506,30 +1514,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D90195136-9ab0-4b45-9b1b-87d8fd4cef78</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D983b1020-fe2c-40e3-af91-75fcb8e3b431</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm 220v Monovolt</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>408.73</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1537,12 +1549,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8233985b-8116-45d7-b842-07e659d55226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ff2d1f6-858b-4ec6-b910-c27d4ee6d4f4</t>
         </is>
       </c>
     </row>
@@ -1577,27 +1589,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ce4013d-cd9e-48dd-a0a7-49bcb0d4dcac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ff2d1f6-858b-4ec6-b910-c27d4ee6d4f4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>365.71</v>
+        <v>681.83</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1612,29 +1624,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ce4013d-cd9e-48dd-a0a7-49bcb0d4dcac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ff2d1f6-858b-4ec6-b910-c27d4ee6d4f4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>610.0599999999999</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1647,25 +1655,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ce4013d-cd9e-48dd-a0a7-49bcb0d4dcac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c53ed0b-8ddb-4087-b24f-6750b18b19a9</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>434.42</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1673,30 +1685,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69a00312-e749-4dd7-b33b-7a78dc194789</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3daae092-2780-4129-9ff5-ec7251291371</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>2088</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1709,19 +1725,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d4866e8-8bb3-4e15-b833-5bb26859e3fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06e9833a-ceba-4686-a1ba-4fd2be69d693</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1744,25 +1760,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95890098-7c16-420c-ae4f-fd2181f07178</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De413c11b-b3bc-47da-bdf2-f3ebafdabaee</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>434.42</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1770,34 +1790,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95890098-7c16-420c-ae4f-fd2181f07178</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De171b147-8202-4673-a30c-5c7390b7d227</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>388.68</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>3609</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1805,34 +1821,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95890098-7c16-420c-ae4f-fd2181f07178</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De171b147-8202-4673-a30c-5c7390b7d227</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>479.81</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1845,14 +1857,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc241d2d-f0e3-404c-b785-62c9d267faac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5940bb3a-c9b1-4966-b6d6-6c584501ac9d</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+          <t>Fonte Carregador Automotivo Jfa Storm Lite 40 Amperes Slim</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1861,7 +1873,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3609</v>
+        <v>328.5</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1871,19 +1883,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc241d2d-f0e3-404c-b785-62c9d267faac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5940bb3a-c9b1-4966-b6d6-6c584501ac9d</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1892,7 +1904,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1284</v>
+        <v>3098</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1907,14 +1919,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8643cd1a-2e3a-4d82-b4ac-188a2ee275a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7dcbc3f6-c912-4386-9df1-d4dfe9ef39a4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite 40 Amperes Slim</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1923,7 +1935,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>328.5</v>
+        <v>2069</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1933,30 +1945,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8643cd1a-2e3a-4d82-b4ac-188a2ee275a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3098</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>1988</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1969,14 +1985,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7aa8d02d-feb1-483f-b48e-5444c25d5b4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2000,25 +2016,29 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D48cbbd3a-f891-4b54-90e5-161dcac8612d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 70a Digital Cca</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2069</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>523.63</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2026,28 +2046,28 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a170afc-e28d-4bfb-bbe1-97d5c8c12a8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 70a Digital Cca</t>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>523.63</v>
+        <v>716.71</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2066,42 +2086,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a170afc-e28d-4bfb-bbe1-97d5c8c12a8b</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3a170afc-e28d-4bfb-bbe1-97d5c8c12a8b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D527a07a5-7e37-4a0a-92f0-846a76bf81be</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts.xlsx
+++ b/dados/koalaparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1620 +483,2063 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>805.59</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>364.95</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#searchVariation=MLB21348561&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>499.46</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>736.61</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#searchVariation=MLB22144397&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>736.61</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#searchVariation=MLB24006449&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#searchVariation=MLB23456525&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>634.4</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>443.07</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#searchVariation=MLB21320712&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#searchVariation=MLB21392652&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>693.7</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:128715346#searchVariation=MLB33435981&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#searchVariation=MLB24834408&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>548.25</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#searchVariation=MLB21455208&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=79f2f8c8-a986-4e4f-9a7a-906b69b7afb3</t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:128715346#searchVariation=MLB21621306&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9dc912d-6d1d-4688-a65e-a41eeb9d8406</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>45.9</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a1af69e-073c-4731-9db1-9e4096d599be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#searchVariation=MLB25707531&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=032d6048-b7d4-4776-8eb4-3b75436e6407</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>443.07</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=5a1af69e-073c-4731-9db1-9e4096d599be</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#searchVariation=MLB21562641&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=032d6048-b7d4-4776-8eb4-3b75436e6407</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>573.36</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:128715346#searchVariation=MLB23998473&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=032d6048-b7d4-4776-8eb4-3b75436e6407</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>433.01</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E14" t="n">
+        <v>433</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#searchVariation=MLB22569833&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=2dbd731d-f044-43e7-8caf-c904b3832833</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>694.83</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E15" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#searchVariation=MLB26854417&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=2dbd731d-f044-43e7-8caf-c904b3832833</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2099</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2455</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=2dbd731d-f044-43e7-8caf-c904b3832833</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2099</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=340f85aa-eb23-450a-b6a9-e90f48f56a6c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#searchVariation=MLB32974100&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=e485c08a-6c5f-4445-8726-147b8b32b69c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2455</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1298</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#searchVariation=MLB27462343&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=6850dded-7158-430c-9adc-35fe08a24c2c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=e485c08a-6c5f-4445-8726-147b8b32b69c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>845.87</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=6850dded-7158-430c-9adc-35fe08a24c2c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#searchVariation=MLB35970528&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=e485c08a-6c5f-4445-8726-147b8b32b69c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1298</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>845.87</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#searchVariation=MLB36113529&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=6850dded-7158-430c-9adc-35fe08a24c2c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#searchVariation=MLB26091477&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=e485c08a-6c5f-4445-8726-147b8b32b69c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>408.74</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>408.73</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc9ac100-e899-4188-b219-17cd5cb62095</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09f3cb01-492d-4516-9d92-afb1c2e9cc34</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>681.83</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfc9ac100-e899-4188-b219-17cd5cb62095</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09f3cb01-492d-4516-9d92-afb1c2e9cc34</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2088</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D62eb36de-df5c-4d89-9567-2844c806f7e9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D026f6750-f876-4d02-82ae-439b5faa4606</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>539.74</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2088</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e00e0e2-61b7-4cae-a434-857a33a9d5bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D026f6750-f876-4d02-82ae-439b5faa4606</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>3098</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2e00e0e2-61b7-4cae-a434-857a33a9d5bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09a82c67-68b6-4473-a34a-08cb110adc12</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1789</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>716.71</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc5304edc-6ff9-41d6-8e85-514c0771d4d0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09a82c67-68b6-4473-a34a-08cb110adc12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>716.71</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>422.93</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc5304edc-6ff9-41d6-8e85-514c0771d4d0</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4687fc85-3056-456a-b311-2fea83b165f8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>536.26</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 220v Jfa</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3098</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75f080bf-9939-4fd4-9716-291c64c0a723</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655106992-inversor-solar-tenso-senoidal-energia-3000w-48v-p-220v-jfa-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ce6b1da-a705-4bac-b871-de12ab1f8f21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>55</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E29" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D75f080bf-9939-4fd4-9716-291c64c0a723</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D238c1e6c-2abf-46ce-a315-2963a93319da</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Jfa Storm 120a Digital Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>674.6799999999999</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm 220v Monovolt</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>774.88</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dff861c7b-98bd-487e-a291-880dac6cb491</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddd5b40a9-2aad-49a9-99d4-c6fe9de97f57</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm 220v Monovolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>774.88</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dff861c7b-98bd-487e-a291-880dac6cb491</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddd5b40a9-2aad-49a9-99d4-c6fe9de97f57</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>402.79</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D983b1020-fe2c-40e3-af91-75fcb8e3b431</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4917661724-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D68411a89-2107-44ce-99be-e93a7f45c48c</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>408.73</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>681.83</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4655170120-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ff2d1f6-858b-4ec6-b910-c27d4ee6d4f4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D68411a89-2107-44ce-99be-e93a7f45c48c</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>805.59</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1284</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ff2d1f6-858b-4ec6-b910-c27d4ee6d4f4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D801b181a-1d68-4a2b-8f56-5e1670317fa6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>681.83</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>805.59</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9ff2d1f6-858b-4ec6-b910-c27d4ee6d4f4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D402ac092-94e7-4950-936c-505cd9be0f14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1988</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c53ed0b-8ddb-4087-b24f-6750b18b19a9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D402ac092-94e7-4950-936c-505cd9be0f14</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="E37" t="n">
         <v>434.42</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680172593-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3daae092-2780-4129-9ff5-ec7251291371</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1578e8f-da25-4f66-b2e5-b5cf9d11b92d</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>2088</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3609</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06e9833a-ceba-4686-a1ba-4fd2be69d693</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1578e8f-da25-4f66-b2e5-b5cf9d11b92d</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1988</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Bivolt Jfa Storm 120a Digital Cca</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De413c11b-b3bc-47da-bdf2-f3ebafdabaee</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D07652277-a1a3-4aec-a5a3-09971d22c67e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>434.42</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>55</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De171b147-8202-4673-a30c-5c7390b7d227</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd376c3a9-ef97-4ac8-9fc9-6c1d4f735f73</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3609</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>536.26</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De171b147-8202-4673-a30c-5c7390b7d227</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3274163831-fonte-carregador-de-bateria-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcabe19d5-326b-4832-9d98-17d437e90b5f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1284</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>539.74</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5940bb3a-c9b1-4966-b6d6-6c584501ac9d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3373ae2f-7292-4eba-8fa8-3d4cb3755b09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm Lite 40 Amperes Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E43" t="n">
+        <v>2069</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411235642-fonte-carregador-automotivo-jfa-storm-lite-40-amperes-slim-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5940bb3a-c9b1-4966-b6d6-6c584501ac9d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd97acc54-0006-46cc-afd3-071821501722</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>3098</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E44" t="n">
+        <v>2069</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7dcbc3f6-c912-4386-9df1-d4dfe9ef39a4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd97acc54-0006-46cc-afd3-071821501722</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2069</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 70a Digital Cca</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>523.63</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deaa6fba9-df7a-431c-ac12-d756165c86c4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1988</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>716.71</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deaa6fba9-df7a-431c-ac12-d756165c86c4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2069</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2088</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D86355de5-132c-42e2-8214-93482fb0bea4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 70a Digital Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>523.63</v>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2455</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4411579642-fonte-e-carregador-bateria-bivolt-jfa-storm-70a-digital-cca-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D450d08af-ee93-4276-9c06-b04ee1993c72</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D527a07a5-7e37-4a0a-92f0-846a76bf81be</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D86355de5-132c-42e2-8214-93482fb0bea4</t>
         </is>
       </c>
     </row>

--- a/dados/koalaparts.xlsx
+++ b/dados/koalaparts.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1949 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preco</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:128715346#wid=MLB3681167093&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:128715346#wid=MLB3171269340&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:128715346#wid=MLB3575153691&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:128715346#wid=MLB4459425968&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>758.71</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:128715346#wid=MLB4495265182&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:128715346#wid=MLB3809827372&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:128715346#wid=MLB3152028382&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:128715346#wid=MLB3165945694&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:128715346#wid=MLB4553159592&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>425.17</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:128715346#wid=MLB3199964928&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=06971ae6-56d5-4874-a191-0897076c7223</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:128715346#wid=MLB3155784686&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=26b53667-9ae8-4a40-bb5a-e42cc276603f</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:128715346#wid=MLB4459448650&amp;sid=search&amp;searchVariation=MLB26854417&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=1159dc78-4324-426a-80e2-710b4e44bffb</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3617083028-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da30180dd-db62-415d-a83a-b69fba1b3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>514.1900000000001</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:128715346#wid=MLB3637678741&amp;sid=search&amp;searchVariation=MLB22569833&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=1159dc78-4324-426a-80e2-710b4e44bffb</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1984</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693602-inversor-solar-tenso-senoidal-energia-2000w-12v-p-220v-jfa-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25fafa3b-253a-4b8b-b507-b2959a1d99a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:128715346#wid=MLB4678680574&amp;sid=search&amp;searchVariation=MLB36113529&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8ad36e7-dcf0-4837-9c8d-4e79b09ac1ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Filtro Eliminador De Ruído Rca Blindagem Eletromagnética Jfa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>61.65</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765551227-filtro-eliminador-de-ruido-rca-blindagem-eletromagnetica-jfa-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D25fafa3b-253a-4b8b-b507-b2959a1d99a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1435</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:128715346#wid=MLB3680172807&amp;sid=search&amp;searchVariation=MLB35970528&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8ad36e7-dcf0-4837-9c8d-4e79b09ac1ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3228798738-fonte-carregador-bateria-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da30180dd-db62-415d-a83a-b69fba1b3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>702.29</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3617646118-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da30180dd-db62-415d-a83a-b69fba1b3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>716.71</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4655170522-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89483de7-db2d-4796-9b59-6972d10ca2dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2333</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:128715346#wid=MLB4655107132&amp;sid=search&amp;searchVariation=MLB27462343&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8ad36e7-dcf0-4837-9c8d-4e79b09ac1ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:128715346#wid=MLB3680134781&amp;sid=search&amp;searchVariation=MLB32974100&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8ad36e7-dcf0-4837-9c8d-4e79b09ac1ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>738.22</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583872739-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89483de7-db2d-4796-9b59-6972d10ca2dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:128715346#wid=MLB3612815449&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8ad36e7-dcf0-4837-9c8d-4e79b09ac1ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Bivolt Jfa Storm 120a Digital Cca</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3583894707-fonte-carregador-bateria-bivolt-jfa-storm-120a-digital-cca-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89483de7-db2d-4796-9b59-6972d10ca2dc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411690986-fonte-carregador-bateria-bivolt-bob-storm-120a-digital-jfa-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f43762a-ae2c-449e-a074-873473344dc6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>447.46</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4411542340-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f43762a-ae2c-449e-a074-873473344dc6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2943</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3663571669-inversor-solar-tenso-senoidal-energia-3000w-48v-p-127v-jfa-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D174c58ca-9cb0-449b-8e89-68f3fff36d0d</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Digital Vs5 Hi Alta Baixa Volt Jfa</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3765613531-voltimetro-sequenciador-digital-vs5-hi-alta-baixa-volt-jfa-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca92db8f-0e92-4b79-a1f2-39a0ecc5ff66</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 40a Digital Cca</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>478.32</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4917661724-fonte-e-carregador-bateria-bivolt-jfa-storm-40a-digital-cca-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca92db8f-0e92-4b79-a1f2-39a0ecc5ff66</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3239808154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d7af952-1f3b-407c-a335-306aec93c1c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>702.29</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680120779-fonte-carregador-de-bateria-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5d7af952-1f3b-407c-a335-306aec93c1c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1889</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693614-inversor-solar-tenso-senoidal-energia-2000w-24v-p-220v-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09b74516-5003-4160-b307-5fe5225cac1b</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 12v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616693584-inversor-solar-tenso-senoidal-energia-2000w-12v-p-127v-jfa-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8833b941-1a8d-4fca-a939-dab05911abce</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1000w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616655190-inversor-solar-tenso-senoidal-energia-1000w-12v-p-220v-jfa-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8833b941-1a8d-4fca-a939-dab05911abce</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1966</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109073-inversor-solar-tenso-senoidal-energia-1500w-12v-p-127v-jfa-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8833b941-1a8d-4fca-a939-dab05911abce</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm 220v Monovolt</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>798.12</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4485123788-fonte-carregador-automotivo-jfa-200a-storm-220v-monovolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcac68988-46b0-4e11-8452-c52feb3ccc67</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 3000w 48v P/127v Jfa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3429</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680134295-inversor-solar-tenso-senoidal-energia-3000w-48v-p127v-jfa-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De3df9da5-e495-4198-8bb7-33a9b848b37f</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3287964010-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcac68988-46b0-4e11-8452-c52feb3ccc67</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616678924-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88e0eb36-f791-4355-b835-2b104663f426</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 1500w 12v P/ 220v Jfa</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1966</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3680109437-inversor-solar-tenso-senoidal-energia-1500w-12v-p-220v-jfa-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6cecc95e-6136-4dc8-a21c-2bbe46188de8</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>koalaparts</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Inversor Solar Tensão Senoidal Energia 2000w 24v P/ 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2333</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4616719356-inversor-solar-tenso-senoidal-energia-2000w-24v-p-127v-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D46330f5d-332f-44a7-bf89-8f720c0c03de</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>